--- a/data/trans_orig/P19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>122997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105870</v>
+        <v>105464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142568</v>
+        <v>141500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2489494706257947</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2142829837286387</v>
+        <v>0.2134625234490181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.288562669937925</v>
+        <v>0.2863994186336182</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -765,19 +765,19 @@
         <v>188235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168460</v>
+        <v>168744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209244</v>
+        <v>209612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4026513738610699</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3603497849939891</v>
+        <v>0.3609590245720342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4475916368870882</v>
+        <v>0.4483790651001896</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>324</v>
@@ -786,19 +786,19 @@
         <v>311232</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>282520</v>
+        <v>284446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>342300</v>
+        <v>341088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.323676465630697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2938165260186755</v>
+        <v>0.2958189044609058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3559869713687082</v>
+        <v>0.3547260555900612</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>371067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351496</v>
+        <v>352564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>388194</v>
+        <v>388600</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7510505293742052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7114373300620749</v>
+        <v>0.7136005813663819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7857170162713614</v>
+        <v>0.7865374765509819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>292</v>
@@ -836,19 +836,19 @@
         <v>279254</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258245</v>
+        <v>257877</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299029</v>
+        <v>298745</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5973486261389301</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5524083631129117</v>
+        <v>0.5516209348998103</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6396502150060108</v>
+        <v>0.6390409754279658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>664</v>
@@ -857,19 +857,19 @@
         <v>650321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619253</v>
+        <v>620465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>679033</v>
+        <v>677107</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.676323534369303</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6440130286312917</v>
+        <v>0.645273944409939</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7061834739813245</v>
+        <v>0.7041810955390942</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>199429</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176251</v>
+        <v>174752</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>227454</v>
+        <v>224162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2711514939082362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2396378312526073</v>
+        <v>0.2375993546596817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.309255578867514</v>
+        <v>0.3047797066709729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -982,19 +982,19 @@
         <v>209007</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>182599</v>
+        <v>183175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>232379</v>
+        <v>232288</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3341478105024299</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2919284138337465</v>
+        <v>0.2928486721444039</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3715132848495461</v>
+        <v>0.3713679135197176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>389</v>
@@ -1003,19 +1003,19 @@
         <v>408436</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373238</v>
+        <v>376855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442226</v>
+        <v>439910</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3001039666291797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2742419440477293</v>
+        <v>0.2768992081745529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3249317809325452</v>
+        <v>0.3232297950472295</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>536060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508035</v>
+        <v>511327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>559238</v>
+        <v>560737</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7288485060917638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6907444211324859</v>
+        <v>0.6952202933290272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7603621687473927</v>
+        <v>0.7624006453403185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>394</v>
@@ -1053,19 +1053,19 @@
         <v>416487</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>393115</v>
+        <v>393206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>442895</v>
+        <v>442319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6658521894975701</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6284867151504538</v>
+        <v>0.6286320864802823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7080715861662535</v>
+        <v>0.7071513278555961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>905</v>
@@ -1074,19 +1074,19 @@
         <v>952546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>918756</v>
+        <v>921072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>987744</v>
+        <v>984127</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6998960333708203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6750682190674547</v>
+        <v>0.6767702049527705</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7257580559522706</v>
+        <v>0.7231007918254471</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>166511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145814</v>
+        <v>144816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188484</v>
+        <v>187908</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2607159931289003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.228310260974062</v>
+        <v>0.2267472574233891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2951202722790554</v>
+        <v>0.2942178523328093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -1199,19 +1199,19 @@
         <v>227904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204670</v>
+        <v>201948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255762</v>
+        <v>252878</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3304179696283193</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2967334968826194</v>
+        <v>0.2927870715817685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3708075592168364</v>
+        <v>0.3666263472111261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>380</v>
@@ -1220,19 +1220,19 @@
         <v>394415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362111</v>
+        <v>362877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>433107</v>
+        <v>429975</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.296906981834255</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2725895060049622</v>
+        <v>0.2731658937757921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3260334484484912</v>
+        <v>0.3236760810621883</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>472157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450184</v>
+        <v>450760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492854</v>
+        <v>493852</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7392840068710996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7048797277209446</v>
+        <v>0.7057821476671907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.771689739025938</v>
+        <v>0.7732527425766109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>441</v>
@@ -1270,19 +1270,19 @@
         <v>461840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>433982</v>
+        <v>436866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>485074</v>
+        <v>487796</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6695820303716807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6291924407831635</v>
+        <v>0.6333736527888738</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7032665031173806</v>
+        <v>0.7072129284182314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>891</v>
@@ -1291,19 +1291,19 @@
         <v>933997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>895305</v>
+        <v>898437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>966301</v>
+        <v>965535</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7030930181657451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.673966551551509</v>
+        <v>0.6763239189378117</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7274104939950379</v>
+        <v>0.726834106224208</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>140987</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120727</v>
+        <v>121642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>163938</v>
+        <v>161418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2720528987176294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2329577099502569</v>
+        <v>0.2347237825875484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3163397418644301</v>
+        <v>0.3114756817530674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -1416,19 +1416,19 @@
         <v>192574</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>171517</v>
+        <v>171105</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>215285</v>
+        <v>213191</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3734638226204025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3326288515009682</v>
+        <v>0.3318292203729966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4175087396405905</v>
+        <v>0.4134472559862321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>318</v>
@@ -1437,19 +1437,19 @@
         <v>333561</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>304857</v>
+        <v>305706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363372</v>
+        <v>367688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3226311900054153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2948675031770381</v>
+        <v>0.2956887470376053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3514657003134695</v>
+        <v>0.3556402503916901</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>377248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354297</v>
+        <v>356817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>397508</v>
+        <v>396593</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7279471012823706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.68366025813557</v>
+        <v>0.6885243182469328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7670422900497431</v>
+        <v>0.765276217412452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>315</v>
@@ -1487,19 +1487,19 @@
         <v>323068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>300357</v>
+        <v>302451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>344125</v>
+        <v>344537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6265361773795974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5824912603594097</v>
+        <v>0.5865527440137679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6673711484990322</v>
+        <v>0.6681707796270036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>667</v>
@@ -1508,19 +1508,19 @@
         <v>700316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>670505</v>
+        <v>666189</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>729020</v>
+        <v>728171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6773688099945846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6485342996865306</v>
+        <v>0.6443597496083099</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.705132496822962</v>
+        <v>0.7043112529623947</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>94469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79320</v>
+        <v>79615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112453</v>
+        <v>114712</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2442901523819509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.205115649473831</v>
+        <v>0.205877591342968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2907937622072137</v>
+        <v>0.2966355667475155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>118</v>
@@ -1633,19 +1633,19 @@
         <v>120405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103418</v>
+        <v>101638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>138595</v>
+        <v>139757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2987274272922416</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2565814228055786</v>
+        <v>0.252166263075135</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3438566144704845</v>
+        <v>0.3467402500864837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -1654,19 +1654,19 @@
         <v>214875</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>190700</v>
+        <v>190692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240843</v>
+        <v>241265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2720723122620773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2414627730433041</v>
+        <v>0.2414528119376636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3049529474320363</v>
+        <v>0.3054868414840753</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>292241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>274257</v>
+        <v>271998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307390</v>
+        <v>307095</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7557098476180492</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7092062377927864</v>
+        <v>0.7033644332524848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.794884350526169</v>
+        <v>0.7941224086570324</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>277</v>
@@ -1704,19 +1704,19 @@
         <v>282656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>264466</v>
+        <v>263304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>299643</v>
+        <v>301423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7012725727077583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6561433855295156</v>
+        <v>0.6532597499135167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7434185771944215</v>
+        <v>0.7478337369248651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>574</v>
@@ -1725,19 +1725,19 @@
         <v>574896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>548928</v>
+        <v>548506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>599071</v>
+        <v>599079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7279276877379227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6950470525679637</v>
+        <v>0.6945131585159248</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7585372269566959</v>
+        <v>0.7585471880623365</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>62346</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50996</v>
+        <v>49194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76874</v>
+        <v>76823</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2130883837275808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1742949371626238</v>
+        <v>0.1681372765012827</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2627437515469222</v>
+        <v>0.262568111730578</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -1850,19 +1850,19 @@
         <v>74460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60710</v>
+        <v>62428</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90518</v>
+        <v>90618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2171264823231802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1770298403339508</v>
+        <v>0.1820420407493192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2639503156094842</v>
+        <v>0.264244537003185</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -1871,19 +1871,19 @@
         <v>136806</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117045</v>
+        <v>116613</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158454</v>
+        <v>157930</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2152673990827601</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1841723694903539</v>
+        <v>0.183493814730386</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2493310938259177</v>
+        <v>0.2485066993802676</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>230237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215709</v>
+        <v>215760</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241587</v>
+        <v>243389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7869116162724191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7372562484530778</v>
+        <v>0.7374318882694217</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8257050628373762</v>
+        <v>0.8318627234987171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>291</v>
@@ -1921,19 +1921,19 @@
         <v>268474</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252416</v>
+        <v>252316</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>282224</v>
+        <v>280506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7828735176768198</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7360496843905162</v>
+        <v>0.7357554629968149</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8229701596660493</v>
+        <v>0.8179579592506807</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>529</v>
@@ -1942,19 +1942,19 @@
         <v>498711</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>477063</v>
+        <v>477587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518472</v>
+        <v>518904</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7847326009172398</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7506689061740829</v>
+        <v>0.7514933006197325</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8158276305096477</v>
+        <v>0.8165061852696142</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>28179</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19298</v>
+        <v>20245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37918</v>
+        <v>38696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1342593514216582</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09194491780899126</v>
+        <v>0.09645646137259653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1806627211729224</v>
+        <v>0.1843690671271867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2067,19 +2067,19 @@
         <v>46410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33954</v>
+        <v>34215</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59947</v>
+        <v>61329</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1389917451962093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1016870599291289</v>
+        <v>0.1024670458295247</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1795329572944088</v>
+        <v>0.1836690325599145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -2088,19 +2088,19 @@
         <v>74589</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59693</v>
+        <v>59404</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92288</v>
+        <v>92845</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1371652180261474</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.109772609384129</v>
+        <v>0.1092406668476314</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1697131086840749</v>
+        <v>0.1707360507809159</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>181704</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>171965</v>
+        <v>171187</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>190585</v>
+        <v>189638</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8657406485783419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8193372788270776</v>
+        <v>0.8156309328728133</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9080550821910091</v>
+        <v>0.9035435386274038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>250</v>
@@ -2138,19 +2138,19 @@
         <v>287498</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>273961</v>
+        <v>272579</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299954</v>
+        <v>299693</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8610082548037907</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8204670427055912</v>
+        <v>0.8163309674400854</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.898312940070871</v>
+        <v>0.8975329541704753</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>440</v>
@@ -2159,19 +2159,19 @@
         <v>469202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>451503</v>
+        <v>450946</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>484098</v>
+        <v>484387</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8628347819738527</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8302868913159251</v>
+        <v>0.8292639492190849</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.890227390615871</v>
+        <v>0.8907593331523688</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>814918</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2487820454285269</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1036</v>
@@ -2284,19 +2284,19 @@
         <v>1058996</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3134726511414416</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1839</v>
@@ -2305,19 +2305,19 @@
         <v>1873914</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.281626297462054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2460713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2408469</v>
+        <v>2410358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2509064</v>
+        <v>2511277</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7512179545714731</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7352688085694074</v>
+        <v>0.7358455471636501</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7659788646673185</v>
+        <v>0.7666542993545989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2260</v>
@@ -2355,19 +2355,19 @@
         <v>2319276</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2265327</v>
+        <v>2269184</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2371338</v>
+        <v>2377274</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6865273488585584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6705577958468655</v>
+        <v>0.6716997136940813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.701938156768023</v>
+        <v>0.7036953861949803</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4670</v>
@@ -2376,19 +2376,19 @@
         <v>4779990</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4709638</v>
+        <v>4704781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4853617</v>
+        <v>4849073</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7183737025379461</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7078006893492216</v>
+        <v>0.7070708386755965</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7294390536280203</v>
+        <v>0.7287560509686304</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>137606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120002</v>
+        <v>118183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>157588</v>
+        <v>159983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3030005726424271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2642374477256128</v>
+        <v>0.2602318778826057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3469983605636358</v>
+        <v>0.352271797411411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>158</v>
@@ -2744,19 +2744,19 @@
         <v>162923</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143903</v>
+        <v>144119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182804</v>
+        <v>183212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3786885832907343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3344800847611358</v>
+        <v>0.3349809515077339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4248993896414445</v>
+        <v>0.4258477233589057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>293</v>
@@ -2765,19 +2765,19 @@
         <v>300530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>272786</v>
+        <v>275458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>330420</v>
+        <v>332277</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3398211552903259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3084497625412581</v>
+        <v>0.3114719415323283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3736190025584061</v>
+        <v>0.3757188505763788</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>316540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296558</v>
+        <v>294163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334144</v>
+        <v>335963</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6969994273575729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6530016394363645</v>
+        <v>0.6477282025885889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7357625522743872</v>
+        <v>0.7397681221173943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>263</v>
@@ -2815,19 +2815,19 @@
         <v>267307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247426</v>
+        <v>247018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286327</v>
+        <v>286111</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6213114167092656</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5751006103585554</v>
+        <v>0.5741522766410943</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6655199152388642</v>
+        <v>0.6650190484922661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>574</v>
@@ -2836,19 +2836,19 @@
         <v>583846</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>553956</v>
+        <v>552099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611590</v>
+        <v>608918</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6601788447096741</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6263809974415939</v>
+        <v>0.624281149423621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.691550237458742</v>
+        <v>0.6885280584676716</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>203047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179782</v>
+        <v>181770</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229621</v>
+        <v>230244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2960139403344491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2620970097349849</v>
+        <v>0.2649946032721004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3347556079753151</v>
+        <v>0.3356638067190437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>191</v>
@@ -2961,19 +2961,19 @@
         <v>204336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>182756</v>
+        <v>182123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231701</v>
+        <v>230917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.334836309726898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.299474431241548</v>
+        <v>0.2984367274355338</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3796786817859585</v>
+        <v>0.3783948826588977</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>386</v>
@@ -2982,19 +2982,19 @@
         <v>407383</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>376473</v>
+        <v>371908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>445405</v>
+        <v>441771</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3142917482825482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2904448276121394</v>
+        <v>0.2869233874436368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3436251711480192</v>
+        <v>0.3408221939834132</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>482890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456316</v>
+        <v>455693</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>506155</v>
+        <v>504167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7039860596655509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6652443920246847</v>
+        <v>0.6643361932809564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7379029902650146</v>
+        <v>0.7350053967278998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -3032,19 +3032,19 @@
         <v>405919</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>378554</v>
+        <v>379338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>427499</v>
+        <v>428132</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.665163690273102</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6203213182140414</v>
+        <v>0.6216051173411022</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.700525568758452</v>
+        <v>0.7015632725644662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>851</v>
@@ -3053,19 +3053,19 @@
         <v>888810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>850788</v>
+        <v>854422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>919720</v>
+        <v>924285</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6857082517174518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6563748288519808</v>
+        <v>0.6591778060165868</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7095551723878606</v>
+        <v>0.7130766125563631</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>176131</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153597</v>
+        <v>151933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>201110</v>
+        <v>198741</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2583090765395404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2252610989516805</v>
+        <v>0.2228206678711529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2949420587830027</v>
+        <v>0.2914675611161279</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -3178,19 +3178,19 @@
         <v>243281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>218956</v>
+        <v>217330</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271408</v>
+        <v>270109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3422396589798535</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3080197277019273</v>
+        <v>0.3057324788999217</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3818076304893139</v>
+        <v>0.3799799738226851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>398</v>
@@ -3199,19 +3199,19 @@
         <v>419412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>383362</v>
+        <v>380710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>455564</v>
+        <v>454433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3011478056842132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2752626921719973</v>
+        <v>0.2733590457577531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.32710540022779</v>
+        <v>0.3262936148046222</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>505732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>480753</v>
+        <v>483122</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>528266</v>
+        <v>529930</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7416909234604596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7050579412169973</v>
+        <v>0.7085324388838722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7747389010483194</v>
+        <v>0.777179332128847</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>438</v>
@@ -3249,19 +3249,19 @@
         <v>467569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>439442</v>
+        <v>440741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491894</v>
+        <v>493520</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6577603410201465</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6181923695106861</v>
+        <v>0.6200200261773149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6919802722980727</v>
+        <v>0.6942675211000783</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>920</v>
@@ -3270,19 +3270,19 @@
         <v>973300</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>937148</v>
+        <v>938279</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1009350</v>
+        <v>1012002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6988521943157868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6728945997722099</v>
+        <v>0.6737063851953774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7247373078280026</v>
+        <v>0.726640954242247</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>160627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138402</v>
+        <v>135449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186691</v>
+        <v>184191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2613447325735176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2251847813325651</v>
+        <v>0.2203797603564482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3037523828829496</v>
+        <v>0.2996836700211105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -3395,19 +3395,19 @@
         <v>199968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177207</v>
+        <v>175816</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225402</v>
+        <v>223827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3250275433706895</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2880315687291902</v>
+        <v>0.2857705715982052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3663673110043961</v>
+        <v>0.3638077850603702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>316</v>
@@ -3416,19 +3416,19 @@
         <v>360595</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>328126</v>
+        <v>328435</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>399065</v>
+        <v>393394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2932021441371588</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2668013307774933</v>
+        <v>0.2670527564097582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3244822290188241</v>
+        <v>0.3198711983532202</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>453990</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427926</v>
+        <v>430426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>476215</v>
+        <v>479168</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7386552674264825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6962476171170504</v>
+        <v>0.7003163299788895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.774815218667435</v>
+        <v>0.7796202396435519</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -3466,19 +3466,19 @@
         <v>415267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>389833</v>
+        <v>391408</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>438028</v>
+        <v>439419</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6749724566293105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6336326889956039</v>
+        <v>0.6361922149396297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7119684312708099</v>
+        <v>0.7142294284017948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>770</v>
@@ -3487,19 +3487,19 @@
         <v>869256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>830786</v>
+        <v>836457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>901725</v>
+        <v>901416</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7067978558628412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6755177709811758</v>
+        <v>0.6801288016467798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7331986692225068</v>
+        <v>0.7329472435902418</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>89348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72450</v>
+        <v>72639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107949</v>
+        <v>109126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2087242462395707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1692507694480361</v>
+        <v>0.1696914339985693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2521793818570655</v>
+        <v>0.2549289441659563</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -3612,19 +3612,19 @@
         <v>123968</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103760</v>
+        <v>106300</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143498</v>
+        <v>144497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2768385542373512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2317110056269319</v>
+        <v>0.2373826816354871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3204520903473366</v>
+        <v>0.3226812239433501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -3633,19 +3633,19 @@
         <v>213316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>187811</v>
+        <v>188217</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>239447</v>
+        <v>240720</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2435487478974734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2144290968968494</v>
+        <v>0.214892736520564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.27338366738519</v>
+        <v>0.2748364078744667</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>338718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>320117</v>
+        <v>318940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>355616</v>
+        <v>355427</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7912757537604292</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7478206181429345</v>
+        <v>0.7450710558340439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8307492305519639</v>
+        <v>0.8303085660014307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -3683,19 +3683,19 @@
         <v>323832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>304302</v>
+        <v>303303</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>344040</v>
+        <v>341500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7231614457626487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6795479096526633</v>
+        <v>0.6773187760566501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7682889943730681</v>
+        <v>0.7626173183645133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>601</v>
@@ -3704,19 +3704,19 @@
         <v>662550</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>636419</v>
+        <v>635146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>688055</v>
+        <v>687649</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7564512521025266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7266163326148101</v>
+        <v>0.7251635921255333</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7855709031031506</v>
+        <v>0.785107263479436</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>55400</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42657</v>
+        <v>43193</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72795</v>
+        <v>72352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1788342064503887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1376971132741344</v>
+        <v>0.1394295828909742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2349853608956355</v>
+        <v>0.2335543694531252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -3829,19 +3829,19 @@
         <v>93841</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78300</v>
+        <v>77078</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111548</v>
+        <v>111210</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2650910752643353</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2211880165430987</v>
+        <v>0.2177358951224222</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3151112775540414</v>
+        <v>0.3141574085242609</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -3850,19 +3850,19 @@
         <v>149242</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126834</v>
+        <v>125198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172061</v>
+        <v>174272</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2248351196214692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1910784604123119</v>
+        <v>0.1886130742637047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.259212407535133</v>
+        <v>0.2625438510407093</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>254386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>236991</v>
+        <v>237434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267129</v>
+        <v>266593</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8211657935496113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7650146391043643</v>
+        <v>0.7664456305468751</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8623028867258654</v>
+        <v>0.8605704171090258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -3900,19 +3900,19 @@
         <v>260155</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242448</v>
+        <v>242786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275696</v>
+        <v>276918</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7349089247356647</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6848887224459586</v>
+        <v>0.6858425914757392</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7788119834569013</v>
+        <v>0.7822641048775781</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>490</v>
@@ -3921,19 +3921,19 @@
         <v>514540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491721</v>
+        <v>489510</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>536948</v>
+        <v>538584</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7751648803785307</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7407875924648669</v>
+        <v>0.7374561489592908</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.808921539587688</v>
+        <v>0.8113869257362953</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>22437</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13996</v>
+        <v>15190</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33727</v>
+        <v>32925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08980034215001464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05601825934044891</v>
+        <v>0.06079442063201872</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1349886299792329</v>
+        <v>0.1317775646149136</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -4046,19 +4046,19 @@
         <v>50539</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38098</v>
+        <v>39087</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64865</v>
+        <v>66532</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1299277506138933</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09794389299409367</v>
+        <v>0.1004854881694596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1667568856589061</v>
+        <v>0.1710428475640993</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -4067,19 +4067,19 @@
         <v>72976</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57760</v>
+        <v>57429</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90728</v>
+        <v>89672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1142336385835792</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09041459076849347</v>
+        <v>0.08989754914315841</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.142022621483537</v>
+        <v>0.1403687450229853</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>227414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>216124</v>
+        <v>216926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235855</v>
+        <v>234661</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9101996578499854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8650113700207671</v>
+        <v>0.8682224353850861</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.943981740659551</v>
+        <v>0.9392055793679811</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>304</v>
@@ -4117,19 +4117,19 @@
         <v>338440</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>324114</v>
+        <v>322447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>350881</v>
+        <v>349892</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8700722493861067</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8332431143410939</v>
+        <v>0.8289571524359005</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9020561070059061</v>
+        <v>0.8995145118305403</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>505</v>
@@ -4138,19 +4138,19 @@
         <v>565854</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>548102</v>
+        <v>549158</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>581070</v>
+        <v>581401</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8857663614164208</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8579773785164629</v>
+        <v>0.8596312549770148</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9095854092315065</v>
+        <v>0.9101024508568419</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>844597</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>793873</v>
+        <v>790325</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>896639</v>
+        <v>896071</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2466503963573812</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.231837521124972</v>
+        <v>0.2308013152687392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2618486494557353</v>
+        <v>0.2616827032574002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>996</v>
@@ -4263,19 +4263,19 @@
         <v>1078857</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1020450</v>
+        <v>1020857</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1131990</v>
+        <v>1129145</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3032758273436963</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2868571853908241</v>
+        <v>0.2869717096285596</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3182121181710253</v>
+        <v>0.3174122099047941</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1793</v>
@@ -4284,19 +4284,19 @@
         <v>1923453</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1854347</v>
+        <v>1845644</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2013411</v>
+        <v>2002922</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2755027917347082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2656045505033621</v>
+        <v>0.2643578956759631</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2883878306476649</v>
+        <v>0.2868853344656943</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2579669</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2527627</v>
+        <v>2528195</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2630393</v>
+        <v>2633941</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7533496036426188</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7381513505442646</v>
+        <v>0.7383172967425997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.768162478875028</v>
+        <v>0.7691986847312605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2301</v>
@@ -4334,19 +4334,19 @@
         <v>2478488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2425355</v>
+        <v>2428200</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2536895</v>
+        <v>2536488</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6967241726563036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6817878818289745</v>
+        <v>0.6825877900952059</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7131428146091759</v>
+        <v>0.7130282903714404</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4711</v>
@@ -4355,19 +4355,19 @@
         <v>5058157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4968199</v>
+        <v>4978688</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5127263</v>
+        <v>5135966</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7244972082652918</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7116121693523353</v>
+        <v>0.7131146655343058</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7343954494966379</v>
+        <v>0.735642104324037</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>162618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142353</v>
+        <v>143878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182185</v>
+        <v>181872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3876802173197367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3393685794449516</v>
+        <v>0.3430057529953097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4343289885364892</v>
+        <v>0.433582307938888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -4723,19 +4723,19 @@
         <v>174433</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155440</v>
+        <v>154896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>196182</v>
+        <v>193540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4407609410924071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3927681892294223</v>
+        <v>0.3913946848234224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4957167179012791</v>
+        <v>0.4890393881546869</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>330</v>
@@ -4744,19 +4744,19 @@
         <v>337051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>309092</v>
+        <v>308004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366581</v>
+        <v>366586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4134487380785167</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3791520480938194</v>
+        <v>0.377817419380796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4496718815486974</v>
+        <v>0.4496783857383408</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>256845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237278</v>
+        <v>237591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277110</v>
+        <v>275585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6123197826802633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5656710114635108</v>
+        <v>0.566417692061112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6606314205550484</v>
+        <v>0.6569942470046902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -4794,19 +4794,19 @@
         <v>221322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199573</v>
+        <v>202215</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240315</v>
+        <v>240859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.559239058907593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5042832820987209</v>
+        <v>0.5109606118453131</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6072318107705776</v>
+        <v>0.6086053151765776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>467</v>
@@ -4815,19 +4815,19 @@
         <v>478167</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>448637</v>
+        <v>448632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>506126</v>
+        <v>507214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5865512619214832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5503281184513027</v>
+        <v>0.5503216142616593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6208479519061807</v>
+        <v>0.622182580619204</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>205632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>182769</v>
+        <v>183562</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>228019</v>
+        <v>228707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3482366558296731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3095181738789912</v>
+        <v>0.3108609155112171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3861474455488771</v>
+        <v>0.3873131512273942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>244</v>
@@ -4940,19 +4940,19 @@
         <v>238488</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>215280</v>
+        <v>213923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260571</v>
+        <v>261606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4231930915453728</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3820106742599261</v>
+        <v>0.379603712844109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4623787123250782</v>
+        <v>0.4642152660731199</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>441</v>
@@ -4961,19 +4961,19 @@
         <v>444120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>411715</v>
+        <v>412544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>478567</v>
+        <v>479760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3848395707090237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3567596500504926</v>
+        <v>0.357478276621055</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4146886597101014</v>
+        <v>0.4157217274503653</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>384864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362477</v>
+        <v>361789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407727</v>
+        <v>406934</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6517633441703269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6138525544511229</v>
+        <v>0.6126868487726058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6904818261210088</v>
+        <v>0.6891390844887829</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -5011,19 +5011,19 @@
         <v>325056</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302973</v>
+        <v>301938</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348264</v>
+        <v>349621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5768069084546272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5376212876749221</v>
+        <v>0.5357847339268811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6179893257400748</v>
+        <v>0.6203962871558912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>705</v>
@@ -5032,19 +5032,19 @@
         <v>709920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>675473</v>
+        <v>674280</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742325</v>
+        <v>741496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6151604292909764</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5853113402898986</v>
+        <v>0.5842782725496347</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6432403499495074</v>
+        <v>0.642521723378945</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>190431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169172</v>
+        <v>167369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218297</v>
+        <v>215310</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2846092246644233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2528366578277183</v>
+        <v>0.2501420581661955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3262563565740343</v>
+        <v>0.3217915917149594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -5157,19 +5157,19 @@
         <v>238665</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214830</v>
+        <v>217141</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261513</v>
+        <v>264261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.360855319831493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3248173403189371</v>
+        <v>0.3283120274524537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3954009833103834</v>
+        <v>0.3995564198800589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>418</v>
@@ -5178,19 +5178,19 @@
         <v>429096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>397810</v>
+        <v>393717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464413</v>
+        <v>464754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3225113416727851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.298997047187652</v>
+        <v>0.2959206819065888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3490563101136764</v>
+        <v>0.3493125423191019</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>478666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450800</v>
+        <v>453787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499925</v>
+        <v>501728</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7153907753355767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6737436434259656</v>
+        <v>0.6782084082850406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7471633421722818</v>
+        <v>0.7498579418338045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>426</v>
@@ -5228,19 +5228,19 @@
         <v>422721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>399873</v>
+        <v>397125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>446556</v>
+        <v>444245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.639144680168507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6045990166896166</v>
+        <v>0.600443580119941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6751826596810628</v>
+        <v>0.6716879725475463</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>885</v>
@@ -5249,19 +5249,19 @@
         <v>901387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>866070</v>
+        <v>865729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>932673</v>
+        <v>936766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6774886583272149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6509436898863236</v>
+        <v>0.6506874576808981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.701002952812348</v>
+        <v>0.7040793180934113</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>195393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173898</v>
+        <v>171019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218579</v>
+        <v>220268</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3024433424241401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2691716104331811</v>
+        <v>0.2647157472016135</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.338332733339079</v>
+        <v>0.3409461072262386</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>215</v>
@@ -5374,19 +5374,19 @@
         <v>234660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209311</v>
+        <v>210114</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259578</v>
+        <v>257049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3615283047074488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3224743577171151</v>
+        <v>0.3237113808244867</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3999187015184409</v>
+        <v>0.3960220372520896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>389</v>
@@ -5395,19 +5395,19 @@
         <v>430053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>394251</v>
+        <v>392415</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>463426</v>
+        <v>466583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3320549084406245</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3044115049624369</v>
+        <v>0.302993911903878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3578235927715197</v>
+        <v>0.3602607813879133</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>450655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427469</v>
+        <v>425780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>472150</v>
+        <v>475029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6975566575758598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.661667266660921</v>
+        <v>0.6590538927737616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7308283895668188</v>
+        <v>0.7352842527983868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>387</v>
@@ -5445,19 +5445,19 @@
         <v>414417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>389499</v>
+        <v>392028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439766</v>
+        <v>438963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6384716952925511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6000812984815592</v>
+        <v>0.6039779627479104</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6775256422828849</v>
+        <v>0.6762886191755132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>795</v>
@@ -5466,19 +5466,19 @@
         <v>865072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>831699</v>
+        <v>828542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>900874</v>
+        <v>902710</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6679450915593754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6421764072284802</v>
+        <v>0.6397392186120867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.695588495037563</v>
+        <v>0.697006088096122</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>130808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112618</v>
+        <v>112047</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154162</v>
+        <v>153460</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2737032179814781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2356429122518296</v>
+        <v>0.2344472158185445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3225695069684983</v>
+        <v>0.3211003760094582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -5591,19 +5591,19 @@
         <v>155126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135242</v>
+        <v>133654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>179433</v>
+        <v>176356</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.312220457555154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2722003329020932</v>
+        <v>0.269002968849595</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3611423724279325</v>
+        <v>0.3549496689587455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>248</v>
@@ -5612,19 +5612,19 @@
         <v>285934</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>256750</v>
+        <v>259402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318236</v>
+        <v>317444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2933358604705393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.26339625085291</v>
+        <v>0.2661165442458356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3264744094822073</v>
+        <v>0.3256613795212923</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>347110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>323756</v>
+        <v>324458</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>365300</v>
+        <v>365871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7262967820185219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6774304930315017</v>
+        <v>0.6788996239905417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7643570877481703</v>
+        <v>0.7655527841814556</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -5662,19 +5662,19 @@
         <v>341723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>317416</v>
+        <v>320493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>361607</v>
+        <v>363195</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.687779542444846</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6388576275720677</v>
+        <v>0.6450503310412542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.727799667097907</v>
+        <v>0.730997031150405</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>609</v>
@@ -5683,19 +5683,19 @@
         <v>688833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>656531</v>
+        <v>657323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>718017</v>
+        <v>715365</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7066641395294606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.673525590517793</v>
+        <v>0.6743386204787077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.73660374914709</v>
+        <v>0.7338834557541649</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>66425</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51548</v>
+        <v>52535</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81995</v>
+        <v>81249</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1986821600047003</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1541844460637111</v>
+        <v>0.15713481488982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2452522240279057</v>
+        <v>0.2430211794324285</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -5808,19 +5808,19 @@
         <v>113756</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96309</v>
+        <v>96558</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134222</v>
+        <v>133412</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3011324528644138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2549465171190329</v>
+        <v>0.2556055581797211</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3553079478873061</v>
+        <v>0.353163760292172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -5829,19 +5829,19 @@
         <v>180182</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155689</v>
+        <v>155684</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>203807</v>
+        <v>202811</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2530316369097906</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2186365262431108</v>
+        <v>0.2186296361928765</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2862085229782985</v>
+        <v>0.2848098912355509</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>267905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252335</v>
+        <v>253081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282782</v>
+        <v>281795</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8013178399952997</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7547477759720942</v>
+        <v>0.7569788205675714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8458155539362889</v>
+        <v>0.8428651851101799</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>249</v>
@@ -5879,19 +5879,19 @@
         <v>264006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243540</v>
+        <v>244350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>281453</v>
+        <v>281204</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6988675471355863</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6446920521126939</v>
+        <v>0.6468362397078277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.745053482880967</v>
+        <v>0.7443944418202788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -5900,19 +5900,19 @@
         <v>531910</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508285</v>
+        <v>509281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>556403</v>
+        <v>556408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7469683630902094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7137914770217012</v>
+        <v>0.715190108764449</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7813634737568892</v>
+        <v>0.7813703638071234</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>35041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26543</v>
+        <v>26168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45875</v>
+        <v>45365</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1363456651270901</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1032804985945655</v>
+        <v>0.1018233535279982</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1785041093283449</v>
+        <v>0.1765202654165005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -6025,19 +6025,19 @@
         <v>69042</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52631</v>
+        <v>52855</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87910</v>
+        <v>86930</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1725324756489137</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.131521693404167</v>
+        <v>0.1320815399824458</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2196811891231288</v>
+        <v>0.2172332336905355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>93</v>
@@ -6046,19 +6046,19 @@
         <v>104083</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85565</v>
+        <v>84266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126472</v>
+        <v>125737</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1583809160574969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1302031986165123</v>
+        <v>0.1282265326184943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1924499508640649</v>
+        <v>0.191331946188648</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>221957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211123</v>
+        <v>211633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230455</v>
+        <v>230830</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.86365433487291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8214958906716551</v>
+        <v>0.8234797345834994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8967195014054345</v>
+        <v>0.8981766464720018</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>250</v>
@@ -6096,19 +6096,19 @@
         <v>331127</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>312259</v>
+        <v>313239</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>347538</v>
+        <v>347314</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8274675243510863</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7803188108768712</v>
+        <v>0.782766766309464</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8684783065958329</v>
+        <v>0.8679184600175539</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>510</v>
@@ -6117,19 +6117,19 @@
         <v>553084</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>530695</v>
+        <v>531430</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>571602</v>
+        <v>572901</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8416190839425032</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8075500491359352</v>
+        <v>0.808668053811352</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8697968013834878</v>
+        <v>0.8717734673815057</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>986348</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>927321</v>
+        <v>928370</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1036068</v>
+        <v>1042026</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2905851334820868</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2731954458661593</v>
+        <v>0.273504566048816</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3052331684306099</v>
+        <v>0.3069882479398203</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1166</v>
@@ -6242,19 +6242,19 @@
         <v>1224171</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1161785</v>
+        <v>1164912</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1280306</v>
+        <v>1279702</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3453677779255916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3277673772082697</v>
+        <v>0.3286494590928967</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3612048436963857</v>
+        <v>0.3610344806913924</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2087</v>
@@ -6263,19 +6263,19 @@
         <v>2210518</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2143091</v>
+        <v>2135143</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2291761</v>
+        <v>2291162</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3185693382328801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3088520135854333</v>
+        <v>0.3077066819442409</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3302777088968096</v>
+        <v>0.3301913615362504</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2408002</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2358282</v>
+        <v>2352324</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2467029</v>
+        <v>2465980</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7094148665179132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6947668315693897</v>
+        <v>0.6930117520601796</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7268045541338406</v>
+        <v>0.726495433951184</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2172</v>
@@ -6313,19 +6313,19 @@
         <v>2320371</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2264236</v>
+        <v>2264840</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2382757</v>
+        <v>2379630</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6546322220744083</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6387951563036138</v>
+        <v>0.6389655193086079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6722326227917301</v>
+        <v>0.6713505409071034</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4482</v>
@@ -6334,19 +6334,19 @@
         <v>4728374</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4647131</v>
+        <v>4647730</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4795801</v>
+        <v>4803749</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6814306617671199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6697222911031903</v>
+        <v>0.6698086384637496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6911479864145665</v>
+        <v>0.6922933180557591</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>110207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85985</v>
+        <v>80144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141897</v>
+        <v>139427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.273767693936973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2135980301978689</v>
+        <v>0.1990879756810895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3524899057531155</v>
+        <v>0.3463539506531407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -6702,19 +6702,19 @@
         <v>112321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88138</v>
+        <v>88961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136242</v>
+        <v>137576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3117526168025526</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2446327997489994</v>
+        <v>0.246916137340093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3781487246742233</v>
+        <v>0.381849547728967</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -6723,19 +6723,19 @@
         <v>222528</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>187875</v>
+        <v>187244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>261265</v>
+        <v>259479</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2917078168531472</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2462816936650149</v>
+        <v>0.2454557575536269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3424887640534802</v>
+        <v>0.3401470019893114</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>292349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260659</v>
+        <v>263129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316571</v>
+        <v>322412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.726232306063027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6475100942468847</v>
+        <v>0.6536460493468594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7864019698021314</v>
+        <v>0.8009120243189105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -6773,19 +6773,19 @@
         <v>247967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>224046</v>
+        <v>222712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272150</v>
+        <v>271327</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6882473831974476</v>
+        <v>0.6882473831974474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6218512753257767</v>
+        <v>0.618150452271033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7553672002510006</v>
+        <v>0.7530838626599069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>269</v>
@@ -6794,19 +6794,19 @@
         <v>540316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>501579</v>
+        <v>503365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574969</v>
+        <v>575600</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7082921831468527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6575112359465197</v>
+        <v>0.6598529980106888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7537183063349849</v>
+        <v>0.7545442424463731</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>134394</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108731</v>
+        <v>110515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160942</v>
+        <v>164988</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2828927454977915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2288728754295343</v>
+        <v>0.232629212082928</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3387751293597552</v>
+        <v>0.3472917876074215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -6919,19 +6919,19 @@
         <v>162496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141816</v>
+        <v>140291</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186042</v>
+        <v>185720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.327558280494856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2858716481804694</v>
+        <v>0.2827973990479501</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3750211985750739</v>
+        <v>0.374371089163786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -6940,19 +6940,19 @@
         <v>296890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>264245</v>
+        <v>261213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>334862</v>
+        <v>329151</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3057087457988488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2720937498267209</v>
+        <v>0.2689720678897061</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3448082729683123</v>
+        <v>0.3389273994594991</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>340676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>314128</v>
+        <v>310082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366339</v>
+        <v>364555</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7171072545022085</v>
+        <v>0.7171072545022086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6612248706402447</v>
+        <v>0.6527082123925785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7711271245704656</v>
+        <v>0.7673707879170719</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -6990,19 +6990,19 @@
         <v>333588</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>310042</v>
+        <v>310364</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354268</v>
+        <v>355793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.672441719505144</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6249788014249259</v>
+        <v>0.6256289108362139</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7141283518195303</v>
+        <v>0.7172026009520498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>530</v>
@@ -7011,19 +7011,19 @@
         <v>674264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>636292</v>
+        <v>642003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706909</v>
+        <v>709941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6942912542011512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6551917270316876</v>
+        <v>0.6610726005405008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7279062501732791</v>
+        <v>0.7310279321102939</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>163656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141498</v>
+        <v>141913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188766</v>
+        <v>188457</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2650710321409576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2291820518215974</v>
+        <v>0.2298539564341944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3057401066586994</v>
+        <v>0.30523943178844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>316</v>
@@ -7136,19 +7136,19 @@
         <v>236163</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213485</v>
+        <v>214633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255902</v>
+        <v>257565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3818768490407303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3452064431903437</v>
+        <v>0.347062933144427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4137954474404718</v>
+        <v>0.4164847204886091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>457</v>
@@ -7157,19 +7157,19 @@
         <v>399819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>368422</v>
+        <v>366401</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>434193</v>
+        <v>427415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3235221501226734</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.298116848604267</v>
+        <v>0.2964812638103806</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3513361965826877</v>
+        <v>0.3458518180165308</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>453750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428640</v>
+        <v>428949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475908</v>
+        <v>475493</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7349289678590425</v>
+        <v>0.7349289678590426</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6942598933413007</v>
+        <v>0.6947605682115598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7708179481784025</v>
+        <v>0.7701460435658057</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>525</v>
@@ -7207,19 +7207,19 @@
         <v>382263</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>362524</v>
+        <v>360861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>404941</v>
+        <v>403793</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6181231509592696</v>
+        <v>0.6181231509592695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5862045525595282</v>
+        <v>0.5835152795113908</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6547935568096563</v>
+        <v>0.652937066855573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>927</v>
@@ -7228,19 +7228,19 @@
         <v>836013</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>801639</v>
+        <v>808417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>867410</v>
+        <v>869431</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6764778498773267</v>
+        <v>0.6764778498773266</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6486638034173127</v>
+        <v>0.6541481819834692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7018831513957332</v>
+        <v>0.7035187361896194</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>204288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>179085</v>
+        <v>180425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230067</v>
+        <v>232736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.292518764337508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2564312438925124</v>
+        <v>0.2583504041566997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.329432090753477</v>
+        <v>0.333254128392134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>396</v>
@@ -7353,19 +7353,19 @@
         <v>257937</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238396</v>
+        <v>236855</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>279522</v>
+        <v>279872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3529800292385262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3262396516003394</v>
+        <v>0.3241297382096672</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3825196522987153</v>
+        <v>0.3829984272487954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>581</v>
@@ -7374,19 +7374,19 @@
         <v>462224</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>428556</v>
+        <v>431198</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492529</v>
+        <v>495854</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3234340242673073</v>
+        <v>0.3234340242673074</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2998749026982436</v>
+        <v>0.3017239372802191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.344639443558946</v>
+        <v>0.3469659255670338</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>494087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468308</v>
+        <v>465639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>519290</v>
+        <v>517950</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7074812356624921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.670567909246523</v>
+        <v>0.6667458716078661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7435687561074875</v>
+        <v>0.7416495958433001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>735</v>
@@ -7424,19 +7424,19 @@
         <v>472803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>451218</v>
+        <v>450868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>492344</v>
+        <v>493885</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6470199707614738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6174803477012848</v>
+        <v>0.6170015727512047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6737603483996606</v>
+        <v>0.675870261790333</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1213</v>
@@ -7445,19 +7445,19 @@
         <v>966891</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>936586</v>
+        <v>933261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1000559</v>
+        <v>997917</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6765659757326926</v>
+        <v>0.6765659757326927</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.655360556441054</v>
+        <v>0.6530340744329661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7001250973017563</v>
+        <v>0.6982760627197808</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>156891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135145</v>
+        <v>137762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>177709</v>
+        <v>178805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2586818470345281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2228269019281813</v>
+        <v>0.2271420543810622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2930053059200554</v>
+        <v>0.294812667224081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -7570,19 +7570,19 @@
         <v>205588</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>187518</v>
+        <v>187780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222853</v>
+        <v>222954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3424988728156266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3123951734721066</v>
+        <v>0.3128306263930507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3712601730307452</v>
+        <v>0.3714290861217694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>502</v>
@@ -7591,19 +7591,19 @@
         <v>362479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>333916</v>
+        <v>338562</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>390291</v>
+        <v>390922</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3003735601056126</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.276703841306028</v>
+        <v>0.2805544422329842</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3234200107758493</v>
+        <v>0.323943092633471</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>449612</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>428794</v>
+        <v>427698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>471358</v>
+        <v>468741</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7413181529654719</v>
+        <v>0.7413181529654718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7069946940799446</v>
+        <v>0.7051873327759189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7771730980718189</v>
+        <v>0.7728579456189377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>656</v>
@@ -7641,19 +7641,19 @@
         <v>394672</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377407</v>
+        <v>377306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>412742</v>
+        <v>412480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6575011271843734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6287398269692549</v>
+        <v>0.6285709138782307</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6876048265278932</v>
+        <v>0.6871693736069493</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1147</v>
@@ -7662,19 +7662,19 @@
         <v>844283</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>816471</v>
+        <v>815840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>872846</v>
+        <v>868200</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6996264398943876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6765799892241506</v>
+        <v>0.6760569073665292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.723296158693972</v>
+        <v>0.719445557767016</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>106944</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94569</v>
+        <v>90279</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123158</v>
+        <v>121691</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2667207953042288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2358553962756086</v>
+        <v>0.2251564376259865</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3071589687581133</v>
+        <v>0.3034981213484</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>212</v>
@@ -7787,19 +7787,19 @@
         <v>114144</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101530</v>
+        <v>101512</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127806</v>
+        <v>128519</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2606586609208616</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2318532418330889</v>
+        <v>0.2318127732124189</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2918575260153167</v>
+        <v>0.2934848742535681</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>359</v>
@@ -7808,19 +7808,19 @@
         <v>221089</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202031</v>
+        <v>199646</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241329</v>
+        <v>241131</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2635562295263141</v>
+        <v>0.2635562295263142</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2408374519150124</v>
+        <v>0.2379950358522158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2876842489042677</v>
+        <v>0.2874481165160899</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>294016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277802</v>
+        <v>279269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>306391</v>
+        <v>310681</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7332792046957715</v>
+        <v>0.7332792046957713</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6928410312418867</v>
+        <v>0.6965018786515996</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7641446037243914</v>
+        <v>0.7748435623740131</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>613</v>
@@ -7858,19 +7858,19 @@
         <v>323763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>310101</v>
+        <v>309388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>336377</v>
+        <v>336395</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7393413390791383</v>
+        <v>0.7393413390791382</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7081424739846833</v>
+        <v>0.7065151257464319</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7681467581669111</v>
+        <v>0.7681872267875809</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1028</v>
@@ -7879,19 +7879,19 @@
         <v>617778</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>597538</v>
+        <v>597736</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>636836</v>
+        <v>639221</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7364437704736858</v>
+        <v>0.7364437704736859</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.712315751095732</v>
+        <v>0.7125518834839103</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7591625480849876</v>
+        <v>0.7620049641477842</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>46733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37249</v>
+        <v>36917</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58226</v>
+        <v>58091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1527313393889978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1217342612458628</v>
+        <v>0.1206499448800214</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1902923190938733</v>
+        <v>0.1898506070287556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -8004,19 +8004,19 @@
         <v>63282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53021</v>
+        <v>52965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75505</v>
+        <v>74992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1389704694630272</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1164373286743743</v>
+        <v>0.1163139354342323</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1658129313405878</v>
+        <v>0.1646859174283008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -8025,19 +8025,19 @@
         <v>110016</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95637</v>
+        <v>94978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126678</v>
+        <v>125944</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1445009393032481</v>
+        <v>0.1445009393032482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1256150459184851</v>
+        <v>0.1247499273370398</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1663865056942212</v>
+        <v>0.1654219672333488</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>259251</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247758</v>
+        <v>247893</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>268735</v>
+        <v>269067</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8472686606110021</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8097076809061264</v>
+        <v>0.8101493929712444</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8782657387541372</v>
+        <v>0.8793500551199789</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>753</v>
@@ -8075,19 +8075,19 @@
         <v>392082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>379859</v>
+        <v>380372</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>402343</v>
+        <v>402399</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8610295305369727</v>
+        <v>0.861029530536973</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8341870686594121</v>
+        <v>0.8353140825716989</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8835626713256257</v>
+        <v>0.8836860645657675</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1141</v>
@@ -8096,19 +8096,19 @@
         <v>651332</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>634670</v>
+        <v>635404</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>665711</v>
+        <v>666370</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.855499060696752</v>
+        <v>0.8554990606967521</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8336134943057786</v>
+        <v>0.8345780327666512</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8743849540815145</v>
+        <v>0.8752500726629602</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>923114</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>867236</v>
+        <v>861390</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>986295</v>
+        <v>986038</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.263231350282072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2472975019960179</v>
+        <v>0.2456303766533904</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2812477382837679</v>
+        <v>0.2811743732713519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1577</v>
@@ -8221,19 +8221,19 @@
         <v>1151931</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1100951</v>
+        <v>1103916</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1206436</v>
+        <v>1203617</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3114111219769276</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.297629236745919</v>
+        <v>0.298430897341013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3261460301444419</v>
+        <v>0.3253839335468214</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2410</v>
@@ -8242,19 +8242,19 @@
         <v>2075045</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2000495</v>
+        <v>2002166</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2158602</v>
+        <v>2160700</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2879638197225129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2776181553250661</v>
+        <v>0.2778499746953452</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2995594604931634</v>
+        <v>0.2998505155802768</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2583741</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2520560</v>
+        <v>2520817</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2639619</v>
+        <v>2645465</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.736768649717928</v>
+        <v>0.7367686497179282</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7187522617162321</v>
+        <v>0.7188256267286482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.752702498003982</v>
+        <v>0.7543696233466096</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3736</v>
@@ -8292,19 +8292,19 @@
         <v>2547137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2492632</v>
+        <v>2495451</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2598117</v>
+        <v>2595152</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6885888780230724</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.673853969855558</v>
+        <v>0.6746160664531786</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7023707632540812</v>
+        <v>0.7015691026589871</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6255</v>
@@ -8313,19 +8313,19 @@
         <v>5130878</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5047321</v>
+        <v>5045223</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5205428</v>
+        <v>5203757</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7120361802774871</v>
+        <v>0.7120361802774872</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7004405395068365</v>
+        <v>0.7001494844197231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7223818446749338</v>
+        <v>0.7221500253046547</v>
       </c>
     </row>
     <row r="27">
